--- a/Vaults.xlsx
+++ b/Vaults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,393 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+  <si>
+    <t>Los Angeles Vault</t>
+  </si>
+  <si>
+    <t>Vault Name</t>
+  </si>
+  <si>
+    <t>Vault 1</t>
+  </si>
+  <si>
+    <t>Vault 2</t>
+  </si>
+  <si>
+    <t>Vault 3</t>
+  </si>
+  <si>
+    <t>Vault 4</t>
+  </si>
+  <si>
+    <t>Vault 5</t>
+  </si>
+  <si>
+    <t>Vault 6</t>
+  </si>
+  <si>
+    <t>Vault 7</t>
+  </si>
+  <si>
+    <t>Vault 8</t>
+  </si>
+  <si>
+    <t>Vault 9</t>
+  </si>
+  <si>
+    <t>Vault 10</t>
+  </si>
+  <si>
+    <t>Vault 11</t>
+  </si>
+  <si>
+    <t>Vault 12</t>
+  </si>
+  <si>
+    <t>Vault 13</t>
+  </si>
+  <si>
+    <t>Vault 14</t>
+  </si>
+  <si>
+    <t>Vault 15</t>
+  </si>
+  <si>
+    <t>Vault 16</t>
+  </si>
+  <si>
+    <t>Vault 17</t>
+  </si>
+  <si>
+    <t>Vault 18</t>
+  </si>
+  <si>
+    <t>Vault 19</t>
+  </si>
+  <si>
+    <t>Vault 20</t>
+  </si>
+  <si>
+    <t>Vault 21</t>
+  </si>
+  <si>
+    <t>Vault 22</t>
+  </si>
+  <si>
+    <t>Vault 23</t>
+  </si>
+  <si>
+    <t>Vault 24</t>
+  </si>
+  <si>
+    <t>Vault 25</t>
+  </si>
+  <si>
+    <t>Vault 26</t>
+  </si>
+  <si>
+    <t>Vault 27</t>
+  </si>
+  <si>
+    <t>Vault 28</t>
+  </si>
+  <si>
+    <t>Vault 29</t>
+  </si>
+  <si>
+    <t>Vault 30</t>
+  </si>
+  <si>
+    <t>Vault 31</t>
+  </si>
+  <si>
+    <t>Vault 32</t>
+  </si>
+  <si>
+    <t>Vault 33</t>
+  </si>
+  <si>
+    <t>Vault 34</t>
+  </si>
+  <si>
+    <t>Vault 35</t>
+  </si>
+  <si>
+    <t>Vault 36</t>
+  </si>
+  <si>
+    <t>Vault 37</t>
+  </si>
+  <si>
+    <t>Vault 38</t>
+  </si>
+  <si>
+    <t>Vault 39</t>
+  </si>
+  <si>
+    <t>Vault 40</t>
+  </si>
+  <si>
+    <t>Vault 41</t>
+  </si>
+  <si>
+    <t>Vault 42</t>
+  </si>
+  <si>
+    <t>Vault 43</t>
+  </si>
+  <si>
+    <t>Vault 44</t>
+  </si>
+  <si>
+    <t>Vault 45</t>
+  </si>
+  <si>
+    <t>Vault 46</t>
+  </si>
+  <si>
+    <t>Vault 47</t>
+  </si>
+  <si>
+    <t>Vault 48</t>
+  </si>
+  <si>
+    <t>Vault 49</t>
+  </si>
+  <si>
+    <t>Vault 50</t>
+  </si>
+  <si>
+    <t>Vault 51</t>
+  </si>
+  <si>
+    <t>Vault 52</t>
+  </si>
+  <si>
+    <t>Vault 53</t>
+  </si>
+  <si>
+    <t>Vault 54</t>
+  </si>
+  <si>
+    <t>Vault 55</t>
+  </si>
+  <si>
+    <t>Vault 56</t>
+  </si>
+  <si>
+    <t>Vault 57</t>
+  </si>
+  <si>
+    <t>Vault 58</t>
+  </si>
+  <si>
+    <t>Vault 59</t>
+  </si>
+  <si>
+    <t>Vault 60</t>
+  </si>
+  <si>
+    <t>Vault 61</t>
+  </si>
+  <si>
+    <t>Vault 62</t>
+  </si>
+  <si>
+    <t>Vault 63</t>
+  </si>
+  <si>
+    <t>Vault 64</t>
+  </si>
+  <si>
+    <t>Vault 65</t>
+  </si>
+  <si>
+    <t>Vault 66</t>
+  </si>
+  <si>
+    <t>Vault 67</t>
+  </si>
+  <si>
+    <t>Vault 68</t>
+  </si>
+  <si>
+    <t>Vault 69</t>
+  </si>
+  <si>
+    <t>Vault 70</t>
+  </si>
+  <si>
+    <t>Vault 71</t>
+  </si>
+  <si>
+    <t>Vault 72</t>
+  </si>
+  <si>
+    <t>Vault 73</t>
+  </si>
+  <si>
+    <t>Vault 74</t>
+  </si>
+  <si>
+    <t>Vault 75</t>
+  </si>
+  <si>
+    <t>Vault 76</t>
+  </si>
+  <si>
+    <t>Vault 77</t>
+  </si>
+  <si>
+    <t>Vault 78</t>
+  </si>
+  <si>
+    <t>Vault 79</t>
+  </si>
+  <si>
+    <t>Vault 80</t>
+  </si>
+  <si>
+    <t>Vault 81</t>
+  </si>
+  <si>
+    <t>Vault 82</t>
+  </si>
+  <si>
+    <t>Vault 83</t>
+  </si>
+  <si>
+    <t>Vault 84</t>
+  </si>
+  <si>
+    <t>Vault 85</t>
+  </si>
+  <si>
+    <t>Vault 86</t>
+  </si>
+  <si>
+    <t>Vault 87</t>
+  </si>
+  <si>
+    <t>Vault 88</t>
+  </si>
+  <si>
+    <t>Vault 89</t>
+  </si>
+  <si>
+    <t>Vault 90</t>
+  </si>
+  <si>
+    <t>Vault 91</t>
+  </si>
+  <si>
+    <t>Vault 92</t>
+  </si>
+  <si>
+    <t>Vault 93</t>
+  </si>
+  <si>
+    <t>Vault 94</t>
+  </si>
+  <si>
+    <t>Vault 95</t>
+  </si>
+  <si>
+    <t>Vault 96</t>
+  </si>
+  <si>
+    <t>Vault 97</t>
+  </si>
+  <si>
+    <t>Vault 98</t>
+  </si>
+  <si>
+    <t>Vault 99</t>
+  </si>
+  <si>
+    <t>Vault 100</t>
+  </si>
+  <si>
+    <t>Vault 101</t>
+  </si>
+  <si>
+    <t>Vault 102</t>
+  </si>
+  <si>
+    <t>Vault 103</t>
+  </si>
+  <si>
+    <t>Vault 104</t>
+  </si>
+  <si>
+    <t>Vault 105</t>
+  </si>
+  <si>
+    <t>Vault 106</t>
+  </si>
+  <si>
+    <t>Vault 107</t>
+  </si>
+  <si>
+    <t>Vault 108</t>
+  </si>
+  <si>
+    <t>Vault 109</t>
+  </si>
+  <si>
+    <t>Vault 110</t>
+  </si>
+  <si>
+    <t>Vault 111</t>
+  </si>
+  <si>
+    <t>Vault 112</t>
+  </si>
+  <si>
+    <t>Vault 113</t>
+  </si>
+  <si>
+    <t>Vault 114</t>
+  </si>
+  <si>
+    <t>Vault 115</t>
+  </si>
+  <si>
+    <t>Vault 116</t>
+  </si>
+  <si>
+    <t>Vault 117</t>
+  </si>
+  <si>
+    <t>Vault 118</t>
+  </si>
+  <si>
+    <t>Vault 119</t>
+  </si>
+  <si>
+    <t>Vault 120</t>
+  </si>
+  <si>
+    <t>Vault 121</t>
+  </si>
+  <si>
+    <t>Vault 122</t>
+  </si>
+  <si>
+    <t>Unfinished Vault</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,13 +403,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,14 +451,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +558,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +766,650 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>